--- a/Variables_and_Assumptions.xlsx
+++ b/Variables_and_Assumptions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdb025\Documents\Research\Maciek\Swim Models 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdb025\Documents\GitHub\MeetOpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>MaxSolveTime</t>
   </si>
@@ -195,9 +195,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>This is for VORP and tells the model if you want to include all the athletes for the all the events. I've set this to "ALL" for now. Only needed if we uncomment the VORP/WAR section</t>
-  </si>
-  <si>
     <t>HomeAthPredTime</t>
   </si>
   <si>
@@ -244,6 +241,54 @@
   </si>
   <si>
     <t>Print statements need to be updated for Python 3</t>
+  </si>
+  <si>
+    <t>indivplcscore</t>
+  </si>
+  <si>
+    <t>relayplcscore</t>
+  </si>
+  <si>
+    <t>List of points for finishing places in INDIVIDUAL events</t>
+  </si>
+  <si>
+    <t>List of points for finishing places in RELAY events</t>
+  </si>
+  <si>
+    <t>This is for VORP and tells the model if you want to include all the athletes for the all the events. Only needed if we uncomment the VORP/WAR section</t>
+  </si>
+  <si>
+    <t>playperf</t>
+  </si>
+  <si>
+    <t>playperfstart</t>
+  </si>
+  <si>
+    <t>playperfMR</t>
+  </si>
+  <si>
+    <t>athlete, stroke</t>
+  </si>
+  <si>
+    <t>athlete, relaynoMR</t>
+  </si>
+  <si>
+    <t>athlete, indiv</t>
+  </si>
+  <si>
+    <t>pred times for each athlete in each individual event</t>
+  </si>
+  <si>
+    <t>TopopprankIndiv</t>
+  </si>
+  <si>
+    <t>TopopprankRelay</t>
+  </si>
+  <si>
+    <t>Currently 3, the number of opponents assigned to each INDIVIDUAL. In non-dual meets, you could have as many as 5 other opponents in a race</t>
+  </si>
+  <si>
+    <t>Currently 3, the number of opponents in each relay event. In non-dual meets, you could have as many as 5 other opponents in a race</t>
   </si>
 </sst>
 </file>
@@ -570,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -725,49 +770,43 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -776,12 +815,12 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -790,12 +829,12 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -804,137 +843,229 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D35" t="s">
         <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Variables_and_Assumptions.xlsx
+++ b/Variables_and_Assumptions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>MaxSolveTime</t>
   </si>
@@ -84,9 +84,6 @@
     <t>event_noMR</t>
   </si>
   <si>
-    <t>Names of the events EXCLUDING the medley relay strokes.</t>
-  </si>
-  <si>
     <t>relaynoMR</t>
   </si>
   <si>
@@ -289,6 +286,27 @@
   </si>
   <si>
     <t>Currently 3, the number of opponents in each relay event. In non-dual meets, you could have as many as 5 other opponents in a race</t>
+  </si>
+  <si>
+    <t>pred time for each athlete in the starting leg of the relay (not MR!)</t>
+  </si>
+  <si>
+    <t>pred time for each athlete for each stroke/leg of the MR</t>
+  </si>
+  <si>
+    <t>opptime</t>
+  </si>
+  <si>
+    <t>list float</t>
+  </si>
+  <si>
+    <t>Names of the events EXCLUDING the medley relay strokes</t>
+  </si>
+  <si>
+    <t>place, event11, scenario</t>
+  </si>
+  <si>
+    <t>top (currently) 3 times for the opponent in each contested event (this will have to be created from the selected lineup and the opponents pred perf array)</t>
   </si>
 </sst>
 </file>
@@ -615,17 +633,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -689,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -703,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -714,16 +732,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -731,124 +749,130 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
+      <c r="D13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -857,12 +881,12 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -871,12 +895,12 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -885,156 +909,156 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>70</v>
+      <c r="D30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
         <v>61</v>
@@ -1042,30 +1066,44 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D36" t="s">
         <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1124,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1094,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1102,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1110,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1118,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -1126,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1134,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
